--- a/Magalu/dadosMagalu.xlsx
+++ b/Magalu/dadosMagalu.xlsx
@@ -14,192 +14,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>Nome; Preço; URL</t>
   </si>
   <si>
-    <t>Teclado sem fio Dell KB500 ; R$ 166,32; https://www.magazineluiza.com.br/teclado-sem-fio-dell-kb500/p/ke4b47ajgg/in/tcld/</t>
-  </si>
-  <si>
-    <t>Teclado e Mouse sem fio Dell KM3322W ; R$ 157,52; https://www.magazineluiza.com.br/teclado-e-mouse-sem-fio-dell-km3322w/p/jbdke19h87/in/kitm/</t>
-  </si>
-  <si>
-    <t>Teclado USB Computador Notebook BrazilPC BPC-8236 Preto ; R$ 24,87; https://www.magazineluiza.com.br/teclado-usb-computador-notebook-brazilpc-bpc-8236-preto/p/bjbbh3342f/in/tcln/</t>
-  </si>
-  <si>
-    <t>Teclado Mecânico Gamer T-Dagger Bora, RGB, Switch Outemu Brown, PT, Preto - T-TGK315-BROWN ; R$ 149,99; https://www.magazineluiza.com.br/teclado-mecanico-gamer-t-dagger-bora-rgb-switch-outemu-brown-pt-preto-t-tgk315-brown/p/djchfkc26a/in/tcdg/</t>
-  </si>
-  <si>
-    <t>Teclado Musical Para Iniciantes Queens 54 Teclas 12 Musicas ; R$ 227,81; https://www.magazineluiza.com.br/teclado-musical-para-iniciantes-queens-54-teclas-12-musicas/p/dc521fdj90/im/tear/</t>
-  </si>
-  <si>
-    <t>Teclado Numérico Gamer USB Multilaser Hotkeys Slim - ABNT 2 Preto e Verde TC243 ; R$ 64,08; https://www.magazineluiza.com.br/teclado-numerico-gamer-usb-multilaser-hotkeys-slim-abnt-2-preto-e-verde-tc243/p/231759300/in/tcdg/</t>
-  </si>
-  <si>
-    <t>Teclado Numérico Gamer USB Multilaser Hotkeys Slim - ABNT 2 Preto e Vermelho TC242 ; R$ 64,08; https://www.magazineluiza.com.br/teclado-numerico-gamer-usb-multilaser-hotkeys-slim-abnt-2-preto-e-vermelho-tc242/p/231759200/in/tcdg/</t>
-  </si>
-  <si>
-    <t>Teclado Gamer de Membrana Multilaser, LED Rainbow, 12 Hotkeys, Modo Game, Compacto, Preto - TC261 ; R$ 59,99; https://www.magazineluiza.com.br/teclado-gamer-de-membrana-multilaser-led-rainbow-12-hotkeys-modo-game-compacto-preto-tc261/p/ajc9g9jd99/in/tcdg/</t>
-  </si>
-  <si>
-    <t>Teclado Gamer Multimidia Led Rgb Semi Mecânico Pc Notebook - Lehmox ; R$ 92,91; https://www.magazineluiza.com.br/teclado-gamer-multimidia-led-rgb-semi-mecanico-pc-notebook-lehmox/p/kh5ce4bbaf/in/tcln/</t>
-  </si>
-  <si>
-    <t>Teclado Pc Computador Notebook Usb Pc Standard Abnt 2 Padrão - NEWLINK ; R$ 41,74; https://www.magazineluiza.com.br/teclado-pc-computador-notebook-usb-pc-standard-abnt-2-padrao-newlink/p/eakeg28f59/in/tcln/</t>
-  </si>
-  <si>
-    <t>Mini Teclado Wireless Sem Fio Android Pc - Altomex ; R$ 27,17; https://www.magazineluiza.com.br/mini-teclado-wireless-sem-fio-android-pc-altomex/p/dbc9be9heb/in/tcld/</t>
-  </si>
-  <si>
-    <t>Teclado Musical Profissional Concert C-300 61 Teclas + Usb ; R$ 567,15; https://www.magazineluiza.com.br/teclado-musical-profissional-concert-c-300-61-teclas-usb/p/kd8f5g0h05/im/tear/</t>
-  </si>
-  <si>
-    <t>Teclado Mecânico Gamer Redragon APS, RGB, Switch Redragon Blue, ABNT2, Preto - Low Profile - K607 RGB (PT-BLUE) ; R$ 189,99; https://www.magazineluiza.com.br/teclado-mecanico-gamer-redragon-aps-rgb-switch-redragon-blue-abnt2-preto-low-profile-k607-rgb-pt-blue/p/ga91cg5fje/in/tcdg/</t>
-  </si>
-  <si>
-    <t>Teclado Para Notebook Dell Inspiron 15-3000 - Neide Notebook ; R$ 57,00; https://www.magazineluiza.com.br/teclado-para-notebook-dell-inspiron-15-3000-neide-notebook/p/efbd7bg24g/in/tcln/</t>
-  </si>
-  <si>
-    <t>Teclado Mecânico Gamer Husky Gaming Snow, TKL, RGB, Switch Outemu Red, Preto - HGMO008 ; R$ 159,99; https://www.magazineluiza.com.br/teclado-mecanico-gamer-husky-gaming-snow-tkl-rgb-switch-outemu-red-preto-hgmo008/p/kahk541229/in/tcld/</t>
-  </si>
-  <si>
-    <t>Teclado Multimídia Dell Kb216 - Em Português ; R$ 87,12; https://www.magazineluiza.com.br/teclado-multimidia-dell-kb216-em-portugues/p/6312346/in/tcld/</t>
-  </si>
-  <si>
-    <t>Teclado gamer QWERTY português Brasil cor preto com luz RGB rainbow ; R$ 55,90; https://www.magazineluiza.com.br/teclado-gamer-qwerty-portugues-brasil-cor-preto-com-luz-rgb-rainbow/p/bf20d6902d/in/tcdg/</t>
-  </si>
-  <si>
-    <t>Teclado Gamer Hawke EG-206RB Com LED Semi Mecanico - Evolut ; R$ 59,90; https://www.magazineluiza.com.br/teclado-gamer-hawke-eg-206rb-com-led-semi-mecanico-evolut/p/bg4781e3jh/in/tcld/</t>
-  </si>
-  <si>
-    <t>Teclado bluetooth branco com prata celular, tablet, notebook e pc com bluetooth -WB8022 - NEW ; R$ 56,99; https://www.magazineluiza.com.br/teclado-bluetooth-branco-com-prata-celular-tablet-notebook-e-pc-com-bluetooth-wb8022-new/p/kf7g8jfgej/in/tcln/</t>
-  </si>
-  <si>
-    <t>Teclado USB para Computador ou Notebook BK 102 EXBOM ; R$ 47,90; https://www.magazineluiza.com.br/teclado-usb-para-computador-ou-notebook-bk-102-exbom/p/ke9feg2043/in/tcln/</t>
-  </si>
-  <si>
-    <t>Teclado Mecânico Gamer Redragon APS, RGB, Switch Redragon Brown, ABNT2 - Low Profile - K607 RGB (PT-BROWN) ; R$ 229,99; https://www.magazineluiza.com.br/teclado-mecanico-gamer-redragon-aps-rgb-switch-redragon-brown-abnt2-low-profile-k607-rgb-pt-brown/p/gkadj78bdg/in/tcdg/</t>
-  </si>
-  <si>
-    <t>Teclado Mecânico Gamer Husky Gaming Blizzard, 60%, RGB, Switch Gateron Brown, ABNT2, Branco - HGMO023 ; R$ 299,99; https://www.magazineluiza.com.br/teclado-mecanico-gamer-husky-gaming-blizzard-60-rgb-switch-gateron-brown-abnt2-branco-hgmo023/p/bgh3g03e47/in/tcdg/</t>
-  </si>
-  <si>
-    <t>Teclado Pc Gamer LED RGB Semi Mecânico ABNT2 USB E-Sports Computador Note Mac - Knup ; R$ 49,99; https://www.magazineluiza.com.br/teclado-pc-gamer-led-rgb-semi-mecanico-abnt2-usb-e-sports-computador-note-mac-knup/p/bc9cgc6ch2/in/tcld/</t>
-  </si>
-  <si>
-    <t>Teclado Padrão para Computador/ Notebook USB - lehmox ; R$ 88,11; https://www.magazineluiza.com.br/teclado-padrao-para-computador-notebook-usb-lehmox/p/db4a9ha5a9/in/tcln/</t>
-  </si>
-  <si>
-    <t>Teclado Mecânico Gamer T-Dagger Bora, RGB, Switch Outemu Blue, ABNT2 - T-TGK315-BLUE ; R$ 149,99; https://www.magazineluiza.com.br/teclado-mecanico-gamer-t-dagger-bora-rgb-switch-outemu-blue-abnt2-t-tgk315-blue/p/edf4e9h2ek/in/tcld/</t>
-  </si>
-  <si>
-    <t>Teclado Mecânico Gamer Motospeed CK61 RGB, Switch Outemu Blue, Branco - FMSTC0115BRO ; R$ 317,64; https://www.magazineluiza.com.br/teclado-mecanico-gamer-motospeed-ck61-rgb-switch-outemu-blue-branco-fmstc0115bro/p/gc5chb24j7/in/tcdg/</t>
-  </si>
-  <si>
-    <t>Teclado Elétrico Musical Infantil Com Microfone E Fonte - Toy king ; R$ 103,14; https://www.magazineluiza.com.br/teclado-eletrico-musical-infantil-com-microfone-e-fonte-toy-king/p/hh9hh5a9f1/im/tcdi/</t>
-  </si>
-  <si>
-    <t>Teclado Para Pc Notebook Kapbom KA-691 QWERTY Modelo Abnt2 Português Brasil Preto USB ; R$ 61,66; https://www.magazineluiza.com.br/teclado-para-pc-notebook-kapbom-ka-691-qwerty-modelo-abnt2-portugues-brasil-preto-usb/p/cg6ch82536/in/tcln/</t>
-  </si>
-  <si>
-    <t>Teclado Usb Basico com Fio Slim Multilaser TC193 ; R$ 35,25; https://www.magazineluiza.com.br/teclado-usb-basico-com-fio-slim-multilaser-tc193/p/hada28fb73/in/tcld/</t>
-  </si>
-  <si>
-    <t>Teclado Para Pc e Notebook Com Fio Conexão Usb - LINK SKY ; R$ 26,88; https://www.magazineluiza.com.br/teclado-para-pc-e-notebook-com-fio-conexao-usb-link-sky/p/babkhe59k6/in/tcln/</t>
-  </si>
-  <si>
-    <t>Teclado Mecânico Gamer Husky Gaming Blizzard, Preto, 60%, Switch Gateron Red, ABNT2, RGB - HGMO000 ; R$ 249,99; https://www.magazineluiza.com.br/teclado-mecanico-gamer-husky-gaming-blizzard-preto-60-switch-gateron-red-abnt2-rgb-hgmo000/p/gcjd15a6cb/in/tcdg/</t>
-  </si>
-  <si>
-    <t>Teclado Sem Fio Para Computador Notebook Mini Keycaps Macio - KAPBOM ; R$ 98,70; https://www.magazineluiza.com.br/teclado-sem-fio-para-computador-notebook-mini-keycaps-macio-kapbom/p/de3ee09ea3/in/tcln/</t>
-  </si>
-  <si>
-    <t>Teclado Bluetooth Sem Fio Smar tv Celular Tablet pc Notebook Ergonomico Android IOS WB -8022 BRANCO - New ; R$ 55,09; https://www.magazineluiza.com.br/teclado-bluetooth-sem-fio-smar-tv-celular-tablet-pc-notebook-ergonomico-android-ios-wb-8022-branco-new/p/ec9bk4d380/in/tcln/</t>
-  </si>
-  <si>
-    <t>Teclado Musical Arranjador 61 Teclas HK 812-Profissional Sensitive-USB-Visor Lcd+Fonte Bivolt - HKeyBoard ; R$ 1.072,55; https://www.magazineluiza.com.br/teclado-musical-arranjador-61-teclas-hk-812-profissional-sensitive-usb-visor-lcd-fonte-bivolt-hkeyboard/p/gcg5c3jdgg/im/tear/</t>
-  </si>
-  <si>
-    <t>Teclado para Notebook Dell Inspiron 15-5000 - Neide Notebook ; R$ 57,00; https://www.magazineluiza.com.br/teclado-para-notebook-dell-inspiron-15-5000-neide-notebook/p/kkgkkh332a/in/tcln/</t>
-  </si>
-  <si>
-    <t>Teclado Bluetooth Sem Fio Pc Notebook Tablet Samsung Abnt2 - Kapbom ; R$ 49,98; https://www.magazineluiza.com.br/teclado-bluetooth-sem-fio-pc-notebook-tablet-samsung-abnt2-kapbom/p/ck437gb79f/in/tcln/</t>
-  </si>
-  <si>
-    <t>Teclado Mecânico Gamer Husky Gaming Blizzard, Branco, 60%, Switch Gateron Red, ABNT2, RGB - HGMO001 ; R$ 249,99; https://www.magazineluiza.com.br/teclado-mecanico-gamer-husky-gaming-blizzard-branco-60-switch-gateron-red-abnt2-rgb-hgmo001/p/jd8bfkaa77/in/tcld/</t>
-  </si>
-  <si>
-    <t>Suporte Ask X10S Teclado Musical Estante Pedestal Até 30Kg ; R$ 64,46; https://www.magazineluiza.com.br/suporte-ask-x10s-teclado-musical-estante-pedestal-ate-30kg/p/cd6g939jf1/in/tcld/</t>
-  </si>
-  <si>
-    <t>Teclado Mecânico Gamer HyperX Alloy MKW100, RGB, Switch Red, Full Size, US, Preto - 4P5E1AAABA ; R$ 299,99; https://www.magazineluiza.com.br/teclado-mecanico-gamer-hyperx-alloy-mkw100-rgb-switch-red-full-size-us-preto-4p5e1aaaba/p/kcfk55361d/in/tcdg/</t>
-  </si>
-  <si>
-    <t>Teclado Gamer Com Fio 60% Redragon Fizz RGB Preto Outemu MK2 Brown ABNT2 - K617-RGB-B (BROWN) ; R$ 224,19; https://www.magazineluiza.com.br/teclado-gamer-com-fio-60-redragon-fizz-rgb-preto-outemu-mk2-brown-abnt2-k617-rgb-b-brown/p/hj9k0cb2ek/in/tcdg/</t>
-  </si>
-  <si>
-    <t>Teclado Bluetooth Sem Fio Pc Notebook Tablet Samsung Abnt2 - Kapbom ; R$ 49,98; https://www.magazineluiza.com.br/teclado-bluetooth-sem-fio-pc-notebook-tablet-samsung-abnt2-kapbom/p/df2h9fkj3f/in/tcln/</t>
-  </si>
-  <si>
-    <t>Teclado Mecânico Gamer Husky Gaming Blizzard, 60%, RGB, Switch Gateron Blue, ABNT2, Preto - HGMO024 ; R$ 299,99; https://www.magazineluiza.com.br/teclado-mecanico-gamer-husky-gaming-blizzard-60-rgb-switch-gateron-blue-abnt2-preto-hgmo024/p/cdkc6d7je2/in/tcld/</t>
-  </si>
-  <si>
-    <t>Teclado Mecânico Gamer Husky Gaming Blizzard, 60%, RGB, Switch Gateron Blue, ABNT2, Branco - HGMO022 ; R$ 299,99; https://www.magazineluiza.com.br/teclado-mecanico-gamer-husky-gaming-blizzard-60-rgb-switch-gateron-blue-abnt2-branco-hgmo022/p/bk76gfjf45/in/tcld/</t>
-  </si>
-  <si>
-    <t>Teclado para Computador e Notebook com Fio Padrão Abnt2 Silencioso Dex LTK-659 ; R$ 34,59; https://www.magazineluiza.com.br/teclado-para-computador-e-notebook-com-fio-padrao-abnt2-silencioso-dex-ltk-659/p/be3efca8jh/in/tcln/</t>
-  </si>
-  <si>
-    <t>Teclado Numérico Gamer USB Multilaser Hotkeys Slim - ABNT 2 Preto e Verde TC243 ; R$ 49,90; https://www.magazineluiza.com.br/teclado-numerico-gamer-usb-multilaser-hotkeys-slim-abnt-2-preto-e-verde-tc243/p/jg02900k46/in/tcdg/</t>
-  </si>
-  <si>
-    <t>Teclado Movitec OTF-01 USB ABNT2 - Preto ; R$ 35,91; https://www.magazineluiza.com.br/teclado-movitec-otf-01-usb-abnt2-preto/p/225991300/in/tcld/</t>
-  </si>
-  <si>
-    <t>Teclado Bluetooth Ultra Slim Tablet PC Celular Notebook Bco - CONCISE FASHION STYLE ; R$ 70,47; https://www.magazineluiza.com.br/teclado-bluetooth-ultra-slim-tablet-pc-celular-notebook-bco-concise-fashion-style/p/db5hkh6980/in/tcln/</t>
-  </si>
-  <si>
-    <t>Teclado 2 Em 1 Bluetooth E Wireless Recarregavel Usb Ergonomico Celular Notebook Computador 8055 - Star ; R$ 79,99; https://www.magazineluiza.com.br/teclado-2-em-1-bluetooth-e-wireless-recarregavel-usb-ergonomico-celular-notebook-computador-8055-star/p/jcejagc9gf/in/tcln/</t>
-  </si>
-  <si>
-    <t>Teclado USB Multimídia Bright - 0014 ; R$ 23,92; https://www.magazineluiza.com.br/teclado-usb-multimidia-bright-0014/p/hg2k4cj5e6/in/tcld/</t>
-  </si>
-  <si>
-    <t>Teclado Mecânico Gamer Motospeed CK61 RGB, Switch Outemu Red, Branco - FMSTC0116BRO ; R$ 269,99; https://www.magazineluiza.com.br/teclado-mecanico-gamer-motospeed-ck61-rgb-switch-outemu-red-branco-fmstc0116bro/p/cfk03f095e/in/tcdg/</t>
-  </si>
-  <si>
-    <t>Teclado Home Office Pc Notebook Computador Gamer Ps4 Usb - B-max ; R$ 33,91; https://www.magazineluiza.com.br/teclado-home-office-pc-notebook-computador-gamer-ps4-usb-b-max/p/kb798j91gb/in/tcln/</t>
-  </si>
-  <si>
-    <t>Teclado Com Fio Flexível De Borracha Usb Notebook Pc - Briwax ; R$ 54,56; https://www.magazineluiza.com.br/teclado-com-fio-flexivel-de-borracha-usb-notebook-pc-briwax/p/fb5g266hkf/in/tcln/</t>
-  </si>
-  <si>
-    <t>Teclado Mecânico Gamer Husky Gaming Snow, TKL, RGB, Switch Outemu Blue, Preto - HGMO009 ; R$ 159,99; https://www.magazineluiza.com.br/teclado-mecanico-gamer-husky-gaming-snow-tkl-rgb-switch-outemu-blue-preto-hgmo009/p/fkafd9e05c/in/tcld/</t>
-  </si>
-  <si>
-    <t>Teclado Gamer Razer Cynosa V2, Chroma, Membrane Switch, US - RZ03-03400200-R3U1 ; R$ 179,99; https://www.magazineluiza.com.br/teclado-gamer-razer-cynosa-v2-chroma-membrane-switch-us-rz03-03400200-r3u1/p/af49h51egb/in/tcdg/</t>
-  </si>
-  <si>
-    <t>Teclado Computador Sem Fio Usb Portátil Pc Notebook Trabalho - HFR ; R$ 94,99; https://www.magazineluiza.com.br/teclado-computador-sem-fio-usb-portatil-pc-notebook-trabalho-hfr/p/be06gb2h7c/in/tcln/</t>
-  </si>
-  <si>
-    <t>Teclado Arranjador Yamaha PSR-E273 61 teclas + Suporte X + Capa + Pedal Sustain ; R$ 1.500,05; https://www.magazineluiza.com.br/teclado-arranjador-yamaha-psr-e273-61-teclas-suporte-x-capa-pedal-sustain/p/kd4f7kch65/im/tear/</t>
-  </si>
-  <si>
-    <t>Teclado Musical 61 Teclas HK 2106 - Visor Lcd + Fonte + Suporte Partitura + Microfone - HKeyBoard ; R$ 557,07; https://www.magazineluiza.com.br/teclado-musical-61-teclas-hk-2106-visor-lcd-fonte-suporte-partitura-microfone-hkeyboard/p/6328998/im/tear/</t>
-  </si>
-  <si>
-    <t>Teclado Para Pc Notebook Kapbom KA-691 QWERTY Modelo Abnt2 Português Brasil Preto USB ; R$ 49,41; https://www.magazineluiza.com.br/teclado-para-pc-notebook-kapbom-ka-691-qwerty-modelo-abnt2-portugues-brasil-preto-usb/p/kka8hddjhj/in/tcln/</t>
-  </si>
-  <si>
-    <t>Teclado Dobrável Flexível De Silicone Usb Notebook Pc Tablet DURAWELL Preto Dw-105 - Helena ; R$ 56,90; https://www.magazineluiza.com.br/teclado-dobravel-flexivel-de-silicone-usb-notebook-pc-tablet-durawell-preto-dw-105-helena/p/gg91agd24j/in/tcln/</t>
-  </si>
-  <si>
-    <t>Teclado Musical Profissional 61 Teclas Sensitivas USB e MIDI - MXT ; R$ 909,81; https://www.magazineluiza.com.br/teclado-musical-profissional-61-teclas-sensitivas-usb-e-midi-mxt/p/ed06e8gjgh/im/tear/</t>
-  </si>
-  <si>
-    <t>Teclado USB Brazil PC BPC-8236 Comum Preto 1.3M BOX - BrazilPC ; R$ 46,98; https://www.magazineluiza.com.br/teclado-usb-brazil-pc-bpc-8236-comum-preto-1-3m-box-brazilpc/p/fj2c7ba02f/in/tcln/</t>
+    <t>Suporte de TV Fixo 10" Até 71" Polegadas - Canaã ; R$ 9,99; https://www.magazineluiza.com.br/suporte-de-tv-fixo-10-ate-71-polegadas-canaa/p/kab1ajh1aa/cj/lpea/</t>
+  </si>
+  <si>
+    <t>Smart TV 50” 4K D-LED Philips 50PUG7907/78 - 60Hz Android Wi-Fi Bluetooth HDR 4 HDMI 2 USB ; R$ 2.706,55; https://www.magazineluiza.com.br/smart-tv-50-4k-d-led-philips-50pug7907-78-60hz-android-wi-fi-bluetooth-hdr-4-hdmi-2-usb/p/235508900/et/elit/</t>
+  </si>
+  <si>
+    <t>Televisão Full Hd 27 Polegadas Hdmi Usb - BRAZILPC ; R$ 846,00; https://www.magazineluiza.com.br/televisao-full-hd-27-polegadas-hdmi-usb-brazilpc/p/jhb64fh184/et/tves/</t>
+  </si>
+  <si>
+    <t>Televisão 27 Polegadas Full Hd Hdmi Usb - BRAZILPC ; R$ 846,00; https://www.magazineluiza.com.br/televisao-27-polegadas-full-hd-hdmi-usb-brazilpc/p/gj7875j8a8/et/tves/</t>
+  </si>
+  <si>
+    <t>Smart TV Philco PTV32G70RCH Roku LED 32 HD 2 HDMI 1 USB e Wi-Fi Integrado ; R$ 999,00; https://www.magazineluiza.com.br/smart-tv-philco-ptv32g70rch-roku-led-32-hd-2-hdmi-1-usb-e-wi-fi-integrado/p/hb3a288jah/et/tves/</t>
+  </si>
+  <si>
+    <t>Televisão Monitor 27 Polegadas Full Hd Hdmi Usb - BRAZILPC ; R$ 846,00; https://www.magazineluiza.com.br/televisao-monitor-27-polegadas-full-hd-hdmi-usb-brazilpc/p/cfjh058hg8/et/emtv/</t>
+  </si>
+  <si>
+    <t>Smart tv led 32 samsung hd un32t4300agxzd ; R$ 1.196,91; https://www.magazineluiza.com.br/smart-tv-led-32-samsung-hd-un32t4300agxzd/p/gj931668d6/et/tled/</t>
+  </si>
+  <si>
+    <t>TV LG 32" LED 32LT330H HD Modo Hotel 32LT330H ; R$ 1.439,76; https://www.magazineluiza.com.br/tv-lg-32-led-32lt330h-hd-modo-hotel-32lt330h/p/kkdagg40k0/et/tled/</t>
+  </si>
+  <si>
+    <t>Smart TV 43" HQ Full HD, HDR, tela sem bordas, Android 11, design Slim KDE43GR315LN ; R$ 1.349,00; https://www.magazineluiza.com.br/smart-tv-43-hq-full-hd-hdr-tela-sem-bordas-android-11-design-slim-kde43gr315ln/p/jc9e858ddd/et/elit/</t>
+  </si>
+  <si>
+    <t>Smart TV 32” HD LED TCL RS530 Wi-Fi - Bluetooth 3 HDMI 1 USB ; R$ 1.099,15; https://www.magazineluiza.com.br/smart-tv-32-hd-led-tcl-rs530-wi-fi-bluetooth-3-hdmi-1-usb/p/236141200/et/elit/</t>
+  </si>
+  <si>
+    <t>Smart TV Samsung 32 Polegadas LED, 2 HDMI, 1 USB, Wi-Fi, HDR - UN32T4300AGXZD ; R$ 1.199,99; https://www.magazineluiza.com.br/smart-tv-samsung-32-polegadas-led-2-hdmi-1-usb-wi-fi-hdr-un32t4300agxzd/p/bh21chdbad/et/tves/</t>
+  </si>
+  <si>
+    <t>Smart TV 32” HD LED Semp R6500 Wi-Fi - 3 HDMI 1 USB ; R$ 1.139,15; https://www.magazineluiza.com.br/smart-tv-32-hd-led-semp-r6500-wi-fi-3-hdmi-1-usb/p/235912900/et/elit/</t>
+  </si>
+  <si>
+    <t>Smart TV HD LED 32” Samsung T4300 - Wi-Fi HDR 2 HDMI 1 USB ; R$ 1.499,99; https://www.magazineluiza.com.br/smart-tv-hd-led-32-samsung-t4300-wi-fi-hdr-2-hdmi-1-usb/p/ce36daabc9/et/tves/</t>
+  </si>
+  <si>
+    <t>Smart TV 40” Full HD LED Philco PTV40E30AGSF - VA Android Wi-Fi Bluetooth Google Assistente ; R$ 1.566,55; https://www.magazineluiza.com.br/smart-tv-40-full-hd-led-philco-ptv40e30agsf-va-android-wi-fi-bluetooth-google-assistente/p/236599900/et/tves/</t>
+  </si>
+  <si>
+    <t>Smart TV LED Coby CY3359-32SMS 32"/ Full HD / HDMI - Preto ; R$ 2.253,13; https://www.magazineluiza.com.br/smart-tv-led-coby-cy3359-32sms-32-full-hd-hdmi-preto/p/aakke46f3h/et/tled/</t>
+  </si>
+  <si>
+    <t>Smart TV LED Coby CY3359-32SMS 32"/ Full HD / HDMI - Preto ; R$ 2.253,13; https://www.magazineluiza.com.br/smart-tv-led-coby-cy3359-32sms-32-full-hd-hdmi-preto/p/ag0964a4e6/et/tled/</t>
+  </si>
+  <si>
+    <t>Smart TV 32” HD LED LG 32LQ620 AI Processor - Wi-Fi Bluetooth Alexa Google Assistente 1 USB ; R$ 1.299,10; https://www.magazineluiza.com.br/smart-tv-32-hd-led-lg-32lq620-ai-processor-wi-fi-bluetooth-alexa-google-assistente-1-usb/p/235288800/et/elit/</t>
+  </si>
+  <si>
+    <t>Smart TV LED 32" Design sem bordas, Google Assistant e Android TV com Bluetooth Konka KDG32 ; R$ 899,00; https://www.magazineluiza.com.br/smart-tv-led-32-design-sem-bordas-google-assistant-e-android-tv-com-bluetooth-konka-kdg32/p/cba0hh0bf9/et/elit/</t>
+  </si>
+  <si>
+    <t>Smart TV LED 32" HQ HD com Conversor Digital Externo 3 HDMI 2 USB WI-FI Android 11 Design Slim ; R$ 899,00; https://www.magazineluiza.com.br/smart-tv-led-32-hq-hd-com-conversor-digital-externo-3-hdmi-2-usb-wi-fi-android-11-design-slim/p/beaggfbdjc/et/elit/</t>
+  </si>
+  <si>
+    <t>Smart TV Coby 32" CY3359-32SMS LED HD Wifi ; R$ 2.397,33; https://www.magazineluiza.com.br/smart-tv-coby-32-cy3359-32sms-led-hd-wifi/p/dej91ee3g6/et/tves/</t>
+  </si>
+  <si>
+    <t>Smart TV 50 Polegadas Multi 4K, Wi-fi Integrado, TL032 ; R$ 2.799,00; https://www.magazineluiza.com.br/smart-tv-50-polegadas-multi-4k-wi-fi-integrado-tl032/p/ghbd1ffa0f/et/tv4k/</t>
+  </si>
+  <si>
+    <t>Tv 32p semp led smart wifi hd - TCL/SEMP ; R$ 1.399,00; https://www.magazineluiza.com.br/tv-32p-semp-led-smart-wifi-hd-tcl-semp/p/haj45b6703/et/tves/</t>
+  </si>
+  <si>
+    <t>Smart TV LG 32 LED HD USB HDMI Wi-fi Bluetooth HDR 10 ThinQ Ai Google Assis. Alexa - 32LQ621CBSBAWZ ; R$ 1.164,60; https://www.magazineluiza.com.br/smart-tv-lg-32-led-hd-usb-hdmi-wi-fi-bluetooth-hdr-10-thinq-ai-google-assis-alexa-32lq621cbsbawz/p/abb292bh8k/et/tled/</t>
+  </si>
+  <si>
+    <t>Smart TV LED 32" HQ HD com Conversor Digital Externo 3 HDMI 2 USB WI-FI Android 11 Design Slim ; R$ 899,00; https://www.magazineluiza.com.br/smart-tv-led-32-hq-hd-com-conversor-digital-externo-3-hdmi-2-usb-wi-fi-android-11-design-slim/p/jc837e7c05/et/elit/</t>
+  </si>
+  <si>
+    <t>Smart TV LED 43" Full HD, Design sem bordas, Google Assistant e Android TV com Bluetooth Konka KDG43 ; R$ 1.349,00; https://www.magazineluiza.com.br/smart-tv-led-43-full-hd-design-sem-bordas-google-assistant-e-android-tv-com-bluetooth-konka-kdg43/p/abbd15aj7k/et/elit/</t>
+  </si>
+  <si>
+    <t>Smart Tv HQ 43 Polegadas Full HD, HDR, Tela Sem Bordas, Android 11, Sistema Ultrasound - HQSTV43N ; R$ 1.649,00; https://www.magazineluiza.com.br/smart-tv-hq-43-polegadas-full-hd-hdr-tela-sem-bordas-android-11-sistema-ultrasound-hqstv43n/p/kj6h1ef3kd/et/elit/</t>
+  </si>
+  <si>
+    <t>Tv 32p Samsung Led Smart Tizen Wifi Hd - Un32t4300agxzd - SAMSUNG AUDIO E VIDEO ; R$ 1.550,86; https://www.magazineluiza.com.br/tv-32p-samsung-led-smart-tizen-wifi-hd-un32t4300agxzd-samsung-audio-e-video/p/cg5kd9ecbk/et/tled/</t>
+  </si>
+  <si>
+    <t>Smart TV 40” Full HD LED TCL S615 VA 60Hz Android - Wi-Fi e Bluetooth HDR Google Assistente 2 HDMI ; R$ 1.614,05; https://www.magazineluiza.com.br/smart-tv-40-full-hd-led-tcl-s615-va-60hz-android-wi-fi-e-bluetooth-hdr-google-assistente-2-hdmi/p/230532000/et/tves/</t>
+  </si>
+  <si>
+    <t>TV 32 Napoli NPL-32S950 Smart/HDMI/Android ; R$ 2.161,22; https://www.magazineluiza.com.br/tv-32-napoli-npl-32s950-smart-hdmi-android/p/cf85d6f863/et/tves/</t>
+  </si>
+  <si>
+    <t>TV Smart LED LG 24TL520S 24" HD ; R$ 2.289,00; https://www.magazineluiza.com.br/tv-smart-led-lg-24tl520s-24-hd/p/akf4ake450/et/tves/</t>
+  </si>
+  <si>
+    <t>Smart TV 43" HQ Full HD HDR tela sem bordas Android 11 design Slim Processador Quad Core Espelhamento de tela ; R$ 1.349,00; https://www.magazineluiza.com.br/smart-tv-43-hq-full-hd-hdr-tela-sem-bordas-android-11-design-slim-processador-quad-core-espelhamento-de-tela/p/ce55fj0274/et/elit/</t>
+  </si>
+  <si>
+    <t>Smart TV 43” Full HD LED TCL Android TV 43S615 - VA Wi-Fi Bluetooth HDR Google Assistente Built-in ; R$ 2.800,00; https://www.magazineluiza.com.br/smart-tv-43-full-hd-led-tcl-android-tv-43s615-va-wi-fi-bluetooth-hdr-google-assistente-built-in/p/dj5bhghf8c/et/tled/</t>
+  </si>
+  <si>
+    <t>Smart TV LED Coby CY3359-32SMS 32"/ Full HD / HDMI - Preto ; R$ 2.434,57; https://www.magazineluiza.com.br/smart-tv-led-coby-cy3359-32sms-32-full-hd-hdmi-preto/p/jha0cf8a6g/et/tled/</t>
+  </si>
+  <si>
+    <t>TV 32 Napoli NPL-32S950 Smart/HDMI/Android ; R$ 2.161,22; https://www.magazineluiza.com.br/tv-32-napoli-npl-32s950-smart-hdmi-android/p/ah296bfe60/et/tves/</t>
+  </si>
+  <si>
+    <t>Smart Tv Philco 50” PTV50G10AG11SK 4K Android TV HDR ; R$ 1.999,90; https://www.magazineluiza.com.br/smart-tv-philco-50-ptv50g10ag11sk-4k-android-tv-hdr/p/bk27d72d35/et/elit/</t>
+  </si>
+  <si>
+    <t>Smart TV Hye 32" HYE32NTHT LED HD/Digital/Wifi/Linux ; R$ 2.054,85; https://www.magazineluiza.com.br/smart-tv-hye-32-hye32ntht-led-hd-digital-wifi-linux/p/eag83g1jad/et/tves/</t>
+  </si>
+  <si>
+    <t>Smart TV HD LED 32” Samsung T4300 - Wi-Fi HDR 2 HDMI 1 USB ; R$ 1.167,55; https://www.magazineluiza.com.br/smart-tv-hd-led-32-samsung-t4300-wi-fi-hdr-2-hdmi-1-usb/p/225608200/et/tves/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ; ; </t>
   </si>
 </sst>
 </file>
@@ -877,7 +808,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -885,7 +816,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -893,7 +824,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -901,7 +832,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -909,7 +840,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -917,7 +848,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -925,7 +856,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -933,7 +864,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -941,7 +872,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -949,7 +880,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -957,7 +888,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -965,7 +896,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -973,7 +904,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -981,7 +912,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -989,7 +920,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -997,7 +928,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1005,7 +936,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1013,7 +944,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1021,7 +952,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1029,7 +960,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1037,7 +968,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1045,7 +976,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1053,7 +984,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1061,7 +992,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
